--- a/src/test/resources/FMEA_no_formula_P10.xlsx
+++ b/src/test/resources/FMEA_no_formula_P10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/zendrahealth/excel-validator/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164E991-1A0C-444E-A14E-7DDE7615228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BC7AF-1651-BC4E-84F4-18386461C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1605,8 +1605,8 @@
   </sheetPr>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1732,7 @@
         <v>130</v>
       </c>
       <c r="F2" s="27" t="str">
-        <f>VLOOKUP(E2,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E2,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G2" s="27" t="str">
@@ -1817,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="27" t="str">
-        <f>VLOOKUP(E3,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E3,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G3" s="27" t="str">
@@ -1897,7 +1897,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="27" t="str">
-        <f>VLOOKUP(E4,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E4,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G4" s="27" t="str">
@@ -1976,7 +1976,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="27" t="str">
-        <f>VLOOKUP(E5,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E5,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G5" s="27" t="str">
@@ -2054,7 +2054,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="27" t="str">
-        <f>VLOOKUP(E6,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E6,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G6" s="27" t="str">
@@ -2136,7 +2136,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="27" t="str">
-        <f>VLOOKUP(E7,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E7,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G7" s="27" t="str">
@@ -2216,7 +2216,7 @@
         <v>91</v>
       </c>
       <c r="F8" s="27" t="str">
-        <f>VLOOKUP(E8,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E8,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G8" s="27" t="str">
@@ -2299,7 +2299,7 @@
         <v>92</v>
       </c>
       <c r="F9" s="27" t="str">
-        <f>VLOOKUP(E9,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E9,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G9" s="27" t="str">
@@ -2384,7 +2384,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="27" t="str">
-        <f>VLOOKUP(E10,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E10,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ10</v>
       </c>
       <c r="G10" s="27" t="str">
